--- a/SPPSApi/Doc/Template/FS0405.xlsx
+++ b/SPPSApi/Doc/Template/FS0405.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BCB12F-346E-479E-895E-3C2EAB047BA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OUTPUT" sheetId="1" r:id="rId1"/>
@@ -20,10 +21,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>发注工厂</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>CFC</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -159,13 +156,17 @@
   </si>
   <si>
     <t>订货方式</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>发注工场</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.0000_ "/>
   </numFmts>
@@ -372,7 +373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,9 +406,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,6 +458,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,22 +650,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR697"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="12.109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="13" customWidth="1"/>
-    <col min="8" max="38" width="3.88671875" style="13" customWidth="1"/>
-    <col min="39" max="44" width="8.21875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="3.36328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="38" width="4.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.1796875" style="14" customWidth="1"/>
+    <col min="42" max="42" width="7.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.1796875" style="14" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -639,136 +681,136 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="5" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="697" spans="1:44" ht="12">
+    <row r="697" spans="1:44" ht="11.5">
       <c r="A697" s="7"/>
       <c r="B697" s="7"/>
       <c r="C697" s="7"/>

--- a/SPPSApi/Doc/Template/FS0405.xlsx
+++ b/SPPSApi/Doc/Template/FS0405.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BCB12F-346E-479E-895E-3C2EAB047BA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF0F650-2D9E-4A17-BB58-F360CE02687B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OUTPUT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -654,7 +654,7 @@
   <dimension ref="A1:AR697"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>

--- a/SPPSApi/Doc/Template/FS0405.xlsx
+++ b/SPPSApi/Doc/Template/FS0405.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF0F650-2D9E-4A17-BB58-F360CE02687B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B3AE72-3A22-4A60-8661-AF48FFF37942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OUTPUT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -654,13 +654,14 @@
   <dimension ref="A1:AR697"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" style="11" customWidth="1"/>
     <col min="4" max="4" width="4.6328125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.26953125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6328125" style="13" bestFit="1" customWidth="1"/>

--- a/SPPSApi/Doc/Template/FS0405.xlsx
+++ b/SPPSApi/Doc/Template/FS0405.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF0F650-2D9E-4A17-BB58-F360CE02687B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837D8718-9321-4285-BEE1-7CFAC6FF1F78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,12 +654,12 @@
   <dimension ref="A1:AR697"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" style="11" customWidth="1"/>
     <col min="2" max="3" width="7.81640625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.6328125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.26953125" style="12" bestFit="1" customWidth="1"/>
